--- a/story/Main Story and Others 主线剧情等/guide 导航文字/l1-5/0_campaign_stage.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/l1-5/0_campaign_stage.xlsx
@@ -64,7 +64,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] Yes, that’s right. If you’re able to perform well in these battles, you’ll be able to greatly reduce the enemy’s operational strength.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] Yes, that's right. If you're able to perform well in these battles, you'll be able to greatly reduce the enemy's operational strength.
 </t>
   </si>
   <si>
@@ -72,7 +72,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] After an Annihilation Operation, rewards will be given based upon the number of enemies defeated.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] After an Annihilation operation, rewards will be given based upon the number of enemies defeated.
 </t>
   </si>
   <si>
